--- a/all_extracted_data_with_overview_w_url.xlsx
+++ b/all_extracted_data_with_overview_w_url.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="183">
   <si>
     <t>Parameter</t>
   </si>
@@ -25,7 +25,22 @@
     <t>Wert</t>
   </si>
   <si>
-    <t>Wirkenenergie kWh</t>
+    <t>Leistung</t>
+  </si>
+  <si>
+    <t>BHKW</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Uhrzeit</t>
+  </si>
+  <si>
+    <t>Wirkarbeit kWh</t>
   </si>
   <si>
     <t>Blindenergie kVArh</t>
@@ -85,10 +100,19 @@
     <t>Betriebsstunden GGK1</t>
   </si>
   <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Uhrzeit</t>
+    <t>5 kW</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>28.03.2025</t>
+  </si>
+  <si>
+    <t>14:40:27</t>
   </si>
   <si>
     <t>45095239</t>
@@ -142,21 +166,6 @@
     <t>111938 h</t>
   </si>
   <si>
-    <t>28.03.2025</t>
-  </si>
-  <si>
-    <t>14:40:27</t>
-  </si>
-  <si>
-    <t>Leistung</t>
-  </si>
-  <si>
-    <t>BHKW</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Abgastemp. Bank A</t>
   </si>
   <si>
@@ -172,6 +181,15 @@
     <t>Gasmischerposition</t>
   </si>
   <si>
+    <t>Motorkuhlwasserdruck</t>
+  </si>
+  <si>
+    <t>Gasgemischkuhlwasserdruck</t>
+  </si>
+  <si>
+    <t>Gasgemischkuhlwassertemp.</t>
+  </si>
+  <si>
     <t>Lambda</t>
   </si>
   <si>
@@ -181,30 +199,21 @@
     <t>Gasgemischtemp.</t>
   </si>
   <si>
+    <t>Drosselklappenpos.</t>
+  </si>
+  <si>
+    <t>Öltemperatur</t>
+  </si>
+  <si>
+    <t>Öldruck</t>
+  </si>
+  <si>
     <t>Motortemp. Eintritt</t>
   </si>
   <si>
     <t>Motortemp. Austritt</t>
   </si>
   <si>
-    <t>Öltemperatur</t>
-  </si>
-  <si>
-    <t>Öldruck</t>
-  </si>
-  <si>
-    <t>Drosselklappenpos.</t>
-  </si>
-  <si>
-    <t>Motorkühlwasserdruck</t>
-  </si>
-  <si>
-    <t>Gasgemischkühlwasserdruck</t>
-  </si>
-  <si>
-    <t>Gasgemischkühlwassertemp.</t>
-  </si>
-  <si>
     <t>Heizungs VL Temp.</t>
   </si>
   <si>
@@ -214,12 +223,6 @@
     <t>382 kW</t>
   </si>
   <si>
-    <t>BHKW 1</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
     <t>14:40:20</t>
   </si>
   <si>
@@ -229,7 +232,7 @@
     <t>646 °C</t>
   </si>
   <si>
-    <t>-9.6 mbar</t>
+    <t>9.6 mbar</t>
   </si>
   <si>
     <t>19.5 °C</t>
@@ -238,6 +241,15 @@
     <t>49.1 %</t>
   </si>
   <si>
+    <t>1.5 bar</t>
+  </si>
+  <si>
+    <t>1.2 bar</t>
+  </si>
+  <si>
+    <t>45.7 °C</t>
+  </si>
+  <si>
     <t>1.502</t>
   </si>
   <si>
@@ -247,36 +259,30 @@
     <t>48.1 °C</t>
   </si>
   <si>
+    <t>57.3 %</t>
+  </si>
+  <si>
+    <t>87.6 °C</t>
+  </si>
+  <si>
+    <t>6.0 bar</t>
+  </si>
+  <si>
     <t>75.8 °C</t>
   </si>
   <si>
     <t>80.3 °C</t>
   </si>
   <si>
-    <t>87.6 °C</t>
-  </si>
-  <si>
-    <t>6.0 bar</t>
-  </si>
-  <si>
-    <t>57.3 %</t>
-  </si>
-  <si>
-    <t>1.5 bar</t>
-  </si>
-  <si>
-    <t>1.2 bar</t>
-  </si>
-  <si>
-    <t>45.7 °C</t>
-  </si>
-  <si>
     <t>79.8 °C</t>
   </si>
   <si>
     <t>59.4 °C</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
@@ -307,138 +313,135 @@
     <t>i</t>
   </si>
   <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>Im</t>
+  </si>
+  <si>
+    <t>I/N</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U1-N</t>
+  </si>
+  <si>
+    <t>U2-N</t>
+  </si>
+  <si>
+    <t>U3-N</t>
+  </si>
+  <si>
+    <t>Um</t>
+  </si>
+  <si>
+    <t>U1 (Netz)</t>
+  </si>
+  <si>
+    <t>U2 (Netz)</t>
+  </si>
+  <si>
+    <t>U3 (Netz)</t>
+  </si>
+  <si>
+    <t>U1-N (Netz)</t>
+  </si>
+  <si>
+    <t>U2-N (Netz)</t>
+  </si>
+  <si>
+    <t>U3-N (Netz)</t>
+  </si>
+  <si>
+    <t>f (Netz)</t>
+  </si>
+  <si>
+    <t>384 kW</t>
+  </si>
+  <si>
+    <t>1503 U/min</t>
+  </si>
+  <si>
+    <t>132 kW</t>
+  </si>
+  <si>
+    <t>127 kW</t>
+  </si>
+  <si>
+    <t>126 kW</t>
+  </si>
+  <si>
+    <t>14 kVAr</t>
+  </si>
+  <si>
+    <t>384 kVA</t>
+  </si>
+  <si>
+    <t>49.99 Hz</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
     <t>k</t>
   </si>
   <si>
-    <t>Strom I1</t>
-  </si>
-  <si>
-    <t>Strom I2</t>
-  </si>
-  <si>
-    <t>Strom I3</t>
-  </si>
-  <si>
-    <t>Strom Im</t>
-  </si>
-  <si>
-    <t>Strom I/N</t>
-  </si>
-  <si>
-    <t>Spannung U1</t>
-  </si>
-  <si>
-    <t>Spannung U2</t>
-  </si>
-  <si>
-    <t>Spannung U3</t>
-  </si>
-  <si>
-    <t>Spannung U1-N</t>
-  </si>
-  <si>
-    <t>Spannung U2-N</t>
-  </si>
-  <si>
-    <t>Spannung U3-N</t>
-  </si>
-  <si>
-    <t>Spannung Um</t>
-  </si>
-  <si>
-    <t>Netz U1</t>
-  </si>
-  <si>
-    <t>Netz U2</t>
-  </si>
-  <si>
-    <t>Netz U3</t>
-  </si>
-  <si>
-    <t>Netz U1-N</t>
-  </si>
-  <si>
-    <t>Netz U2-N</t>
-  </si>
-  <si>
-    <t>Netz U3-N</t>
-  </si>
-  <si>
-    <t>Netz f</t>
-  </si>
-  <si>
-    <t>384 kW</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>375 kW</t>
+  </si>
+  <si>
+    <t>383 kW</t>
+  </si>
+  <si>
+    <t>558 A</t>
+  </si>
+  <si>
+    <t>534 A</t>
+  </si>
+  <si>
+    <t>533 A</t>
+  </si>
+  <si>
+    <t>541 A</t>
+  </si>
+  <si>
+    <t>39 A</t>
+  </si>
+  <si>
+    <t>412 V</t>
+  </si>
+  <si>
+    <t>413 V</t>
+  </si>
+  <si>
+    <t>414 V</t>
+  </si>
+  <si>
+    <t>238 V</t>
+  </si>
+  <si>
+    <t>239 V</t>
+  </si>
+  <si>
+    <t>237 V</t>
   </si>
   <si>
     <t>14:40:15</t>
   </si>
   <si>
-    <t>1503 U/min</t>
-  </si>
-  <si>
-    <t>132 kW</t>
-  </si>
-  <si>
-    <t>127 kW</t>
-  </si>
-  <si>
-    <t>126 kW</t>
-  </si>
-  <si>
-    <t>14 kVAr</t>
-  </si>
-  <si>
-    <t>384 kVA</t>
-  </si>
-  <si>
-    <t>49.99 Hz</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>375 kW</t>
-  </si>
-  <si>
-    <t>558 A</t>
-  </si>
-  <si>
-    <t>534 A</t>
-  </si>
-  <si>
-    <t>533 A</t>
-  </si>
-  <si>
-    <t>541 A</t>
-  </si>
-  <si>
-    <t>39 A</t>
-  </si>
-  <si>
-    <t>412 V</t>
-  </si>
-  <si>
-    <t>413 V</t>
-  </si>
-  <si>
-    <t>414 V</t>
-  </si>
-  <si>
-    <t>238 V</t>
-  </si>
-  <si>
-    <t>239 V</t>
-  </si>
-  <si>
-    <t>237 V</t>
-  </si>
-  <si>
     <t>Laufzeit Heute</t>
   </si>
   <si>
@@ -460,6 +463,9 @@
     <t>Aktuell</t>
   </si>
   <si>
+    <t>LR1</t>
+  </si>
+  <si>
     <t>Pumpe</t>
   </si>
   <si>
@@ -511,10 +517,10 @@
     <t>5598</t>
   </si>
   <si>
-    <t>1761</t>
-  </si>
-  <si>
-    <t>11910</t>
+    <t>17168</t>
+  </si>
+  <si>
+    <t>19101</t>
   </si>
   <si>
     <t>7355</t>
@@ -523,22 +529,22 @@
     <t>7071</t>
   </si>
   <si>
-    <t>6553</t>
-  </si>
-  <si>
-    <t>14010</t>
-  </si>
-  <si>
-    <t>3352200 m3</t>
-  </si>
-  <si>
-    <t>641</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>027</t>
+    <t>6554</t>
+  </si>
+  <si>
+    <t>3820</t>
+  </si>
+  <si>
+    <t>33250200 m3</t>
+  </si>
+  <si>
+    <t>64 t</t>
+  </si>
+  <si>
+    <t>27 t</t>
+  </si>
+  <si>
+    <t>62 t</t>
   </si>
   <si>
     <t>000 t</t>
@@ -547,19 +553,16 @@
     <t>692 h</t>
   </si>
   <si>
+    <t>327 h</t>
+  </si>
+  <si>
     <t>5 h</t>
   </si>
   <si>
-    <t>6 h</t>
+    <t>2 h</t>
   </si>
   <si>
     <t>9 h</t>
-  </si>
-  <si>
-    <t>2 h</t>
-  </si>
-  <si>
-    <t>4 h</t>
   </si>
   <si>
     <t>7 h</t>
@@ -920,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -939,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -947,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -955,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -963,7 +966,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -971,7 +974,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -979,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -987,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -995,7 +998,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1003,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1011,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1019,7 +1022,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1027,7 +1030,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1035,7 +1038,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1043,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1051,7 +1054,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1059,7 +1062,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1067,7 +1070,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1075,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1083,7 +1086,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1091,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1099,7 +1102,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1107,7 +1110,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1133,186 +1160,186 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1338,71 +1365,71 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -1410,135 +1437,132 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
         <v>137</v>
@@ -1546,7 +1570,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
         <v>137</v>
@@ -1554,47 +1578,47 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
         <v>137</v>
@@ -1602,26 +1626,26 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1655,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1639,120 +1663,120 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>179</v>
@@ -1760,10 +1784,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
         <v>180</v>
@@ -1771,43 +1795,54 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>163</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
